--- a/biology/Médecine/Noël_Hallé_(écrivain)/Noël_Hallé_(écrivain).xlsx
+++ b/biology/Médecine/Noël_Hallé_(écrivain)/Noël_Hallé_(écrivain).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>No%C3%ABl_Hall%C3%A9_(%C3%A9crivain)</t>
+          <t>Noël_Hallé_(écrivain)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Noël Hallé, ne lé 13 décembre 1859 à Paris et mort le 13 avril 1927 à Paris, est un urologue et écrivain français[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Noël Hallé, ne lé 13 décembre 1859 à Paris et mort le 13 avril 1927 à Paris, est un urologue et écrivain français.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>No%C3%ABl_Hall%C3%A9_(%C3%A9crivain)</t>
+          <t>Noël_Hallé_(écrivain)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Noël Adrien Joseph Marie Hallé est le fils de de Félix Marie Noël Philibert Hallé (1829-1899) et Marguerite Geneviève Marie Colin de Verdière (1837-1925).
 Interne des hôpitaux de Paris, il est docteur en médecine en 1887. Son père travaille à la Compagnie d'Orléans et sera maire de Châtres (Seine-et-Marne).
-En 1891[2]
+En 1891
 , il épouse Thérèse Marie Eugénie Vincent (1867-1929), en présence de Félix Guyon, témoin majeur. 
 Lors de la Première Guerre mondiale, il est mobilisé dans divers hôpitaux militaires.
 Il vit à Paris, rue du Bac. Il est mort à l'âge de 67 ans.
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>No%C3%ABl_Hall%C3%A9_(%C3%A9crivain)</t>
+          <t>Noël_Hallé_(écrivain)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La taille hypogastrique à l'hôpital Necker (manuel opératoire), Paris, M. Decembre, 1885
 Urétrérite et pyélites, Paris, G. Steinhell, 1887
@@ -555,9 +571,43 @@
 Les formes de la tuberculose rénale chronique, Paris, G. Steinhell, 1914
 La guerre française et chrétienne, Paris, J. de Gigord, 1920, prix Juteau-Duvigneaux de l’Académie française en 1921
 De l'éducation médicale. Essai de morale professionnelle, Paris, Ed. Spes, 1925
-Éléments de philosophie médicale, Paris, M. Rivière, 1925
-Décorations
-Chevalier de la Légion d'honneur en 1921[3].</t>
+Éléments de philosophie médicale, Paris, M. Rivière, 1925</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Noël_Hallé_(écrivain)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/No%C3%ABl_Hall%C3%A9_(%C3%A9crivain)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Décorations</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Chevalier de la Légion d'honneur en 1921.</t>
         </is>
       </c>
     </row>
